--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -397,11 +397,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -447,8 +447,8 @@
   </sheetPr>
   <dimension ref="A1:T997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.50390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -638,7 +638,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -660,7 +660,7 @@
       <c r="A9" s="14"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -682,7 +682,7 @@
       <c r="A10" s="14"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -704,7 +704,7 @@
       <c r="A11" s="14"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -726,7 +726,7 @@
       <c r="A12" s="14"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -748,7 +748,7 @@
       <c r="A13" s="14"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -767,10 +767,10 @@
       <c r="T13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -789,10 +789,10 @@
       <c r="T14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -818,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="15"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -878,7 +878,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="22"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>

--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Anrechnungsstundenberechnung</t>
   </si>
@@ -34,9 +34,9 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial1"/>
+        <rFont val="Ubuntu"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
@@ -44,9 +44,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial2"/>
+        <rFont val="Ubuntu"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
@@ -57,9 +57,9 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="9"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial1"/>
+        <rFont val="Ubuntu"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
@@ -67,9 +67,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial2"/>
+        <rFont val="Ubuntu"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">Klasse bzw. Kurs/ Fach</t>
   </si>
   <si>
-    <t xml:space="preserve">Anzahl Schüler:innen mit Klausur</t>
+    <t xml:space="preserve">Anzahl Klausuren</t>
   </si>
   <si>
     <t xml:space="preserve">Anrechnungspunkte pro Klausur</t>
@@ -92,7 +92,30 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="11"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Zusatzpunkte (z.B. mündliches Abitur)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
@@ -102,7 +125,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
@@ -112,13 +135,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">in % x 120</t>
+    <t xml:space="preserve">In % x ZAHL</t>
   </si>
   <si>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
@@ -128,7 +151,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
@@ -141,7 +164,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
@@ -151,20 +174,23 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Sockelbetrag: Erteilte Stunden x 7,84</t>
+      <t xml:space="preserve"> Sockelbetrag:</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Erteilte Stunden x ZAHL</t>
   </si>
   <si>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
@@ -174,7 +200,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
@@ -195,7 +221,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -228,7 +254,7 @@
     <font>
       <b val="true"/>
       <u val="single"/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
       <family val="0"/>
@@ -242,7 +268,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
       <family val="0"/>
@@ -250,22 +283,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial1"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial2"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
       <family val="0"/>
@@ -335,7 +353,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,8 +386,8 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -380,47 +398,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -447,16 +461,13 @@
   </sheetPr>
   <dimension ref="A1:T997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.50390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="18.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="5" style="1" width="8.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="21" style="1" width="12.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1019" style="1" width="10.5"/>
@@ -486,7 +497,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -508,7 +519,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -534,7 +545,7 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="10.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="3"/>
@@ -556,7 +567,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
@@ -580,7 +591,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
@@ -604,7 +615,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -634,11 +645,11 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -656,11 +667,11 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -678,11 +689,11 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -700,11 +711,11 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -722,11 +733,11 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -744,21 +755,21 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -766,21 +777,21 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13"/>
+    <row r="14" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -788,21 +799,21 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13"/>
+    <row r="15" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
@@ -810,85 +821,85 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="13"/>
+    <row r="16" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="13"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="13"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="13"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="13"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
@@ -896,21 +907,21 @@
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+    <row r="21" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -918,21 +929,21 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+    <row r="22" customFormat="false" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -941,10 +952,12 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -963,10 +976,14 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="13"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -985,10 +1002,12 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1007,10 +1026,14 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="19"/>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="13"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1029,10 +1052,12 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1051,10 +1076,12 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -22397,10 +22424,10 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
